--- a/data/trans_orig/P36B12_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B12_2023-Edad-trans_orig.xlsx
@@ -537,7 +537,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según la frecuencia de consumición de huevos en 2023 (Tasa respuesta: 99,92%)</t>
+          <t>Población según la frecuencia de consumo de huevos en 2023 (Tasa respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -696,7 +696,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,27%</t>
         </is>
       </c>
       <c r="H4" s="2" t="n">
@@ -712,12 +712,12 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="M4" s="2" t="n">
@@ -733,12 +733,12 @@
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,41%</t>
         </is>
       </c>
     </row>
@@ -762,12 +762,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>14,71%</t>
+          <t>14,86%</t>
         </is>
       </c>
       <c r="H5" s="2" t="n">
@@ -783,12 +783,12 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,96%</t>
+          <t>2,84%</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>9,38%</t>
         </is>
       </c>
       <c r="M5" s="2" t="n">
@@ -804,12 +804,12 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,94%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>10,8%</t>
         </is>
       </c>
     </row>
@@ -833,12 +833,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>44,53%</t>
+          <t>43,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>60,74%</t>
+          <t>60,98%</t>
         </is>
       </c>
       <c r="H6" s="2" t="n">
@@ -854,12 +854,12 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>49,13%</t>
+          <t>49,41%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>64,28%</t>
+          <t>64,19%</t>
         </is>
       </c>
       <c r="M6" s="2" t="n">
@@ -875,12 +875,12 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>48,17%</t>
+          <t>48,88%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>59,74%</t>
+          <t>60,3%</t>
         </is>
       </c>
     </row>
@@ -904,12 +904,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,69%</t>
+          <t>23,39%</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>38,71%</t>
         </is>
       </c>
       <c r="H7" s="2" t="n">
@@ -925,12 +925,12 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>24,41%</t>
+          <t>25,05%</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>39,0%</t>
+          <t>39,05%</t>
         </is>
       </c>
       <c r="M7" s="2" t="n">
@@ -946,12 +946,12 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>25,87%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>36,94%</t>
+          <t>36,59%</t>
         </is>
       </c>
     </row>
@@ -975,12 +975,12 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>10,66%</t>
+          <t>10,91%</t>
         </is>
       </c>
       <c r="H8" s="2" t="n">
@@ -996,12 +996,12 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>1,49%</t>
+          <t>1,46%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7,49%</t>
+          <t>7,37%</t>
         </is>
       </c>
       <c r="M8" s="2" t="n">
@@ -1017,12 +1017,12 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>7,62%</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="H10" s="2" t="n">
@@ -1163,12 +1163,12 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>1,25%</t>
+          <t>1,24%</t>
         </is>
       </c>
     </row>
@@ -1192,12 +1192,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>11,69%</t>
+          <t>11,8%</t>
         </is>
       </c>
       <c r="H11" s="2" t="n">
@@ -1213,12 +1213,12 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>13,3%</t>
+          <t>13,39%</t>
         </is>
       </c>
       <c r="M11" s="2" t="n">
@@ -1234,12 +1234,12 @@
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>7,01%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>11,36%</t>
+          <t>11,39%</t>
         </is>
       </c>
     </row>
@@ -1263,12 +1263,12 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>48,91%</t>
+          <t>49,0%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>61,25%</t>
+          <t>61,34%</t>
         </is>
       </c>
       <c r="H12" s="2" t="n">
@@ -1284,12 +1284,12 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>55,88%</t>
+          <t>55,99%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>66,7%</t>
+          <t>66,76%</t>
         </is>
       </c>
       <c r="M12" s="2" t="n">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>54,23%</t>
+          <t>54,14%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>62,12%</t>
+          <t>62,54%</t>
         </is>
       </c>
     </row>
@@ -1334,12 +1334,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,61%</t>
+          <t>24,8%</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>36,66%</t>
+          <t>36,92%</t>
         </is>
       </c>
       <c r="H13" s="2" t="n">
@@ -1355,12 +1355,12 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>22,0%</t>
+          <t>21,72%</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,16%</t>
+          <t>31,08%</t>
         </is>
       </c>
       <c r="M13" s="2" t="n">
@@ -1376,12 +1376,12 @@
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>25,04%</t>
+          <t>24,71%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>32,21%</t>
+          <t>32,06%</t>
         </is>
       </c>
     </row>
@@ -1405,12 +1405,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="H14" s="2" t="n">
@@ -1426,12 +1426,12 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>3,96%</t>
         </is>
       </c>
       <c r="M14" s="2" t="n">
@@ -1447,12 +1447,12 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,29%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -1551,12 +1551,12 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>2,76%</t>
+          <t>2,78%</t>
         </is>
       </c>
       <c r="H16" s="2" t="n">
@@ -1572,12 +1572,12 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="M16" s="2" t="n">
@@ -1593,12 +1593,12 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,11%</t>
         </is>
       </c>
     </row>
@@ -1622,12 +1622,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>11,94%</t>
         </is>
       </c>
       <c r="H17" s="2" t="n">
@@ -1643,12 +1643,12 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>9,26%</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>13,44%</t>
+          <t>13,71%</t>
         </is>
       </c>
       <c r="M17" s="2" t="n">
@@ -1664,12 +1664,12 @@
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,51%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>12,21%</t>
+          <t>12,01%</t>
         </is>
       </c>
     </row>
@@ -1693,12 +1693,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>46,53%</t>
+          <t>46,34%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>55,82%</t>
+          <t>55,29%</t>
         </is>
       </c>
       <c r="H18" s="2" t="n">
@@ -1714,12 +1714,12 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>50,14%</t>
+          <t>50,39%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>57,26%</t>
+          <t>57,52%</t>
         </is>
       </c>
       <c r="M18" s="2" t="n">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>49,51%</t>
+          <t>49,48%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>55,3%</t>
+          <t>55,09%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>30,09%</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>38,48%</t>
+          <t>38,56%</t>
         </is>
       </c>
       <c r="H19" s="2" t="n">
@@ -1785,12 +1785,12 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>27,68%</t>
+          <t>27,53%</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>34,48%</t>
+          <t>33,75%</t>
         </is>
       </c>
       <c r="M19" s="2" t="n">
@@ -1806,12 +1806,12 @@
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>29,74%</t>
+          <t>29,62%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>34,93%</t>
         </is>
       </c>
     </row>
@@ -1835,12 +1835,12 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>6,55%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="H20" s="2" t="n">
@@ -1856,12 +1856,12 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,92%</t>
         </is>
       </c>
       <c r="M20" s="2" t="n">
@@ -1877,12 +1877,12 @@
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>5,23%</t>
+          <t>5,34%</t>
         </is>
       </c>
     </row>
@@ -1981,12 +1981,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>0,15%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>1,18%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="H22" s="2" t="n">
@@ -2007,7 +2007,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="M22" s="2" t="n">
@@ -2023,12 +2023,12 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,21%</t>
         </is>
       </c>
     </row>
@@ -2052,12 +2052,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="H23" s="2" t="n">
@@ -2073,12 +2073,12 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>8,88%</t>
+          <t>9,03%</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>14,05%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="M23" s="2" t="n">
@@ -2094,12 +2094,12 @@
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,06%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>11,91%</t>
+          <t>11,69%</t>
         </is>
       </c>
     </row>
@@ -2123,12 +2123,12 @@
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>40,43%</t>
+          <t>39,85%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>57,52%</t>
+          <t>57,64%</t>
         </is>
       </c>
       <c r="H24" s="2" t="n">
@@ -2144,12 +2144,12 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>51,76%</t>
+          <t>52,09%</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>58,59%</t>
+          <t>58,5%</t>
         </is>
       </c>
       <c r="M24" s="2" t="n">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>47,6%</t>
+          <t>47,29%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>56,83%</t>
+          <t>56,98%</t>
         </is>
       </c>
     </row>
@@ -2194,12 +2194,12 @@
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>32,99%</t>
+          <t>32,94%</t>
         </is>
       </c>
       <c r="H25" s="2" t="n">
@@ -2215,12 +2215,12 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>26,83%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>32,69%</t>
         </is>
       </c>
       <c r="M25" s="2" t="n">
@@ -2236,12 +2236,12 @@
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>25,68%</t>
+          <t>25,84%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>31,79%</t>
+          <t>31,84%</t>
         </is>
       </c>
     </row>
@@ -2265,12 +2265,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>29,31%</t>
         </is>
       </c>
       <c r="H26" s="2" t="n">
@@ -2286,12 +2286,12 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="M26" s="2" t="n">
@@ -2307,12 +2307,12 @@
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,01%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>18,12%</t>
+          <t>18,67%</t>
         </is>
       </c>
     </row>
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="H28" s="2" t="n">
@@ -2432,12 +2432,12 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,67%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,05%</t>
         </is>
       </c>
       <c r="M28" s="2" t="n">
@@ -2453,12 +2453,12 @@
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
         <is>
-          <t>2,17%</t>
+          <t>2,09%</t>
         </is>
       </c>
     </row>
@@ -2482,12 +2482,12 @@
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>8,86%</t>
+          <t>8,91%</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>13,57%</t>
+          <t>13,8%</t>
         </is>
       </c>
       <c r="H29" s="2" t="n">
@@ -2503,12 +2503,12 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>8,96%</t>
+          <t>8,8%</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>12,59%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="M29" s="2" t="n">
@@ -2524,12 +2524,12 @@
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>9,33%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>12,59%</t>
         </is>
       </c>
     </row>
@@ -2553,12 +2553,12 @@
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>50,74%</t>
+          <t>50,98%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>58,67%</t>
+          <t>58,8%</t>
         </is>
       </c>
       <c r="H30" s="2" t="n">
@@ -2574,12 +2574,12 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>52,01%</t>
+          <t>52,11%</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>58,23%</t>
+          <t>58,45%</t>
         </is>
       </c>
       <c r="M30" s="2" t="n">
@@ -2595,12 +2595,12 @@
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>52,57%</t>
+          <t>52,76%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
         <is>
-          <t>57,85%</t>
+          <t>57,9%</t>
         </is>
       </c>
     </row>
@@ -2624,12 +2624,12 @@
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>25,31%</t>
+          <t>25,35%</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>32,64%</t>
+          <t>32,51%</t>
         </is>
       </c>
       <c r="H31" s="2" t="n">
@@ -2645,12 +2645,12 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>27,89%</t>
+          <t>27,65%</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>33,56%</t>
+          <t>33,59%</t>
         </is>
       </c>
       <c r="M31" s="2" t="n">
@@ -2666,12 +2666,12 @@
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>27,42%</t>
+          <t>27,49%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
         <is>
-          <t>32,14%</t>
+          <t>32,24%</t>
         </is>
       </c>
     </row>
@@ -2695,12 +2695,12 @@
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,23%</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>5,08%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="H32" s="2" t="n">
@@ -2716,12 +2716,12 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="M32" s="2" t="n">
@@ -2737,12 +2737,12 @@
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
         <is>
-          <t>3,81%</t>
+          <t>3,71%</t>
         </is>
       </c>
     </row>
@@ -2841,12 +2841,12 @@
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="H34" s="2" t="n">
@@ -2862,12 +2862,12 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="M34" s="2" t="n">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="Q34" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>1,67%</t>
         </is>
       </c>
     </row>
@@ -2912,12 +2912,12 @@
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>9,7%</t>
+          <t>9,63%</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>13,65%</t>
+          <t>13,56%</t>
         </is>
       </c>
       <c r="H35" s="2" t="n">
@@ -2933,12 +2933,12 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>8,06%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>14,2%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="M35" s="2" t="n">
@@ -2954,12 +2954,12 @@
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>9,07%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>13,21%</t>
         </is>
       </c>
     </row>
@@ -2983,12 +2983,12 @@
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>52,8%</t>
+          <t>52,57%</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>58,97%</t>
+          <t>58,68%</t>
         </is>
       </c>
       <c r="H36" s="2" t="n">
@@ -3004,12 +3004,12 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>36,11%</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>59,14%</t>
+          <t>59,22%</t>
         </is>
       </c>
       <c r="M36" s="2" t="n">
@@ -3025,12 +3025,12 @@
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>42,06%</t>
+          <t>41,87%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
         <is>
-          <t>57,55%</t>
+          <t>58,05%</t>
         </is>
       </c>
     </row>
@@ -3054,12 +3054,12 @@
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>26,89%</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>32,67%</t>
+          <t>32,54%</t>
         </is>
       </c>
       <c r="H37" s="2" t="n">
@@ -3075,12 +3075,12 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>24,24%</t>
+          <t>24,34%</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>52,08%</t>
+          <t>53,72%</t>
         </is>
       </c>
       <c r="M37" s="2" t="n">
@@ -3096,12 +3096,12 @@
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>26,56%</t>
+          <t>26,29%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
         <is>
-          <t>47,26%</t>
+          <t>46,43%</t>
         </is>
       </c>
     </row>
@@ -3125,12 +3125,12 @@
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>1,13%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,04%</t>
         </is>
       </c>
       <c r="H38" s="2" t="n">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="M38" s="2" t="n">
@@ -3172,7 +3172,7 @@
       </c>
       <c r="Q38" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>2,45%</t>
         </is>
       </c>
     </row>
@@ -3187,7 +3187,7 @@
         <v>1028</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>697754</v>
+        <v>697755</v>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
@@ -3271,12 +3271,12 @@
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>0,83%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,69%</t>
         </is>
       </c>
       <c r="H40" s="2" t="n">
@@ -3292,12 +3292,12 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,54%</t>
         </is>
       </c>
       <c r="M40" s="2" t="n">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="Q40" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,41%</t>
         </is>
       </c>
     </row>
@@ -3342,12 +3342,12 @@
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>8,46%</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>10,83%</t>
+          <t>10,84%</t>
         </is>
       </c>
       <c r="H41" s="2" t="n">
@@ -3363,12 +3363,12 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>9,48%</t>
+          <t>9,35%</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>11,67%</t>
+          <t>11,69%</t>
         </is>
       </c>
       <c r="M41" s="2" t="n">
@@ -3384,12 +3384,12 @@
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>10,98%</t>
         </is>
       </c>
     </row>
@@ -3413,12 +3413,12 @@
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>50,66%</t>
+          <t>50,69%</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>55,64%</t>
+          <t>55,7%</t>
         </is>
       </c>
       <c r="H42" s="2" t="n">
@@ -3434,12 +3434,12 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>49,24%</t>
+          <t>48,59%</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>57,5%</t>
+          <t>57,29%</t>
         </is>
       </c>
       <c r="M42" s="2" t="n">
@@ -3455,12 +3455,12 @@
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>51,43%</t>
+          <t>51,45%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
         <is>
-          <t>56,07%</t>
+          <t>56,1%</t>
         </is>
       </c>
     </row>
@@ -3484,12 +3484,12 @@
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>27,97%</t>
+          <t>28,43%</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
         <is>
-          <t>32,01%</t>
+          <t>32,26%</t>
         </is>
       </c>
       <c r="H43" s="2" t="n">
@@ -3505,12 +3505,12 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>28,1%</t>
+          <t>28,07%</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>38,98%</t>
         </is>
       </c>
       <c r="M43" s="2" t="n">
@@ -3526,12 +3526,12 @@
       </c>
       <c r="P43" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>28,89%</t>
         </is>
       </c>
       <c r="Q43" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>33,93%</t>
         </is>
       </c>
     </row>
@@ -3555,12 +3555,12 @@
       </c>
       <c r="F44" s="2" t="inlineStr">
         <is>
-          <t>3,49%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="G44" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="H44" s="2" t="n">
@@ -3576,12 +3576,12 @@
       </c>
       <c r="K44" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="L44" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="M44" s="2" t="n">
@@ -3597,12 +3597,12 @@
       </c>
       <c r="P44" s="2" t="inlineStr">
         <is>
-          <t>2,95%</t>
+          <t>3,0%</t>
         </is>
       </c>
       <c r="Q44" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>7,45%</t>
         </is>
       </c>
     </row>
